--- a/app/server/static/templates/reports/Licence_Expiry_Species_NoSpecies_Template.xlsx
+++ b/app/server/static/templates/reports/Licence_Expiry_Species_NoSpecies_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MALS\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FF3B97-68F0-4571-95D6-E882FBB1841D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DDDF3F-D156-477E-BCF6-398C3AF83F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83681376-4B2C-4D3D-B099-3ADF93AAE492}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>Date &amp; Time Report Created</t>
-  </si>
-  <si>
     <t>License Number</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>{d.Reg[i].FirstName}</t>
+  </si>
+  <si>
+    <t>Date &amp; Time Report Created (UTC)</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,27 +531,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="10"/>
@@ -573,65 +573,65 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -683,9 +683,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,27 +915,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F7B00C-A13E-4AF2-A041-06F2663418E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915B54E1-C177-4166-95D8-DC304A9C4B19}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
-    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -957,9 +948,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915B54E1-C177-4166-95D8-DC304A9C4B19}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F7B00C-A13E-4AF2-A041-06F2663418E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
+    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>